--- a/output/layerSolutions_right.xlsx
+++ b/output/layerSolutions_right.xlsx
@@ -4553,10 +4553,10 @@
         <v>44900</v>
       </c>
       <c r="B78" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4565,34 +4565,34 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G78" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O78" t="n">
         <v>0.3</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.28</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0.12</v>
       </c>
       <c r="G79" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0.25</v>
       </c>
       <c r="K79" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0.12</v>
       </c>
       <c r="G80" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0.24</v>
       </c>
       <c r="K80" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0.12</v>
       </c>
       <c r="G81" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0.19</v>
       </c>
       <c r="K81" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0.12</v>
       </c>
       <c r="G82" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0.19</v>
       </c>
       <c r="K82" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4818,10 +4818,10 @@
         <v>45025</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="K83" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="O83" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4871,10 +4871,10 @@
         <v>45050</v>
       </c>
       <c r="B84" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="K84" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="O84" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>0.12</v>
       </c>
       <c r="G85" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="K85" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="O85" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
